--- a/Code/Results/Cases/Case_0_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_212/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.373290913465092</v>
+        <v>6.333022211235455</v>
       </c>
       <c r="D2">
-        <v>14.58251971565286</v>
+        <v>7.684960262628124</v>
       </c>
       <c r="E2">
-        <v>24.25867142467359</v>
+        <v>13.55805561243772</v>
       </c>
       <c r="F2">
-        <v>49.30046455976397</v>
+        <v>48.57599838311926</v>
       </c>
       <c r="G2">
-        <v>1.817461506284377</v>
+        <v>3.747422307412096</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>40.54937299982498</v>
+        <v>36.90984708386188</v>
       </c>
       <c r="J2">
-        <v>13.96600525045592</v>
+        <v>9.409276959553779</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>105.4532719010133</v>
+        <v>61.54106134167115</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.168563269821574</v>
+        <v>6.504067222198687</v>
       </c>
       <c r="D3">
-        <v>13.19589794516917</v>
+        <v>7.286018444012268</v>
       </c>
       <c r="E3">
-        <v>22.00116545607033</v>
+        <v>12.89678247941952</v>
       </c>
       <c r="F3">
-        <v>40.7956638023158</v>
+        <v>49.38866750656814</v>
       </c>
       <c r="G3">
-        <v>1.886185810722804</v>
+        <v>3.758315282026042</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.28070041564974</v>
+        <v>37.32475479197978</v>
       </c>
       <c r="J3">
-        <v>12.52124920985474</v>
+        <v>9.288685663414006</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>95.40112377629207</v>
+        <v>58.48209263516336</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.542174117588851</v>
+        <v>6.612529486195087</v>
       </c>
       <c r="D4">
-        <v>12.38914806020098</v>
+        <v>7.032084496090605</v>
       </c>
       <c r="E4">
-        <v>20.68273173197957</v>
+        <v>12.47451075822538</v>
       </c>
       <c r="F4">
-        <v>36.5773617254524</v>
+        <v>49.93154842231684</v>
       </c>
       <c r="G4">
-        <v>1.92256435404129</v>
+        <v>3.765260120923243</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.05119320720054</v>
+        <v>37.61181056359554</v>
       </c>
       <c r="J4">
-        <v>11.70944436936603</v>
+        <v>9.217377041288138</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>89.57871107646405</v>
+        <v>56.52032851347695</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.303938050941232</v>
+        <v>6.657606684683816</v>
       </c>
       <c r="D5">
-        <v>12.06446089325825</v>
+        <v>6.926462863128621</v>
       </c>
       <c r="E5">
-        <v>20.15081835253167</v>
+        <v>12.2985152129744</v>
       </c>
       <c r="F5">
-        <v>35.03160006600789</v>
+        <v>50.16344834922251</v>
       </c>
       <c r="G5">
-        <v>1.9365416208852</v>
+        <v>3.768155567247218</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.83509284844734</v>
+        <v>37.73663828148814</v>
       </c>
       <c r="J5">
-        <v>11.38751661242335</v>
+        <v>9.189023733996873</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>87.26529388033177</v>
+        <v>55.70046999925373</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.265200297429447</v>
+        <v>6.665145116939472</v>
       </c>
       <c r="D6">
-        <v>12.01065966331732</v>
+        <v>6.908798973978316</v>
       </c>
       <c r="E6">
-        <v>20.06260185520494</v>
+        <v>12.26906030053223</v>
       </c>
       <c r="F6">
-        <v>34.78400597649027</v>
+        <v>50.20258943141334</v>
       </c>
       <c r="G6">
-        <v>1.938822702128686</v>
+        <v>3.768640326788276</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.63820054649737</v>
+        <v>37.7578322037921</v>
       </c>
       <c r="J6">
-        <v>11.33441293169391</v>
+        <v>9.184358807303489</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>86.88862853921003</v>
+        <v>55.56311903320501</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.538902216372845</v>
+        <v>6.613133841387627</v>
       </c>
       <c r="D7">
-        <v>12.3847590994199</v>
+        <v>7.030668546217394</v>
       </c>
       <c r="E7">
-        <v>20.67554681671096</v>
+        <v>12.47215283187264</v>
       </c>
       <c r="F7">
-        <v>36.55588047754604</v>
+        <v>49.93463316390811</v>
       </c>
       <c r="G7">
-        <v>1.922755743737865</v>
+        <v>3.765298904124235</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.03443574211252</v>
+        <v>37.61346260064732</v>
       </c>
       <c r="J7">
-        <v>11.70507559544972</v>
+        <v>9.216991778978265</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>89.54706644594125</v>
+        <v>56.50935344939568</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.924271332977799</v>
+        <v>6.391292491771518</v>
       </c>
       <c r="D8">
-        <v>14.08892663221026</v>
+        <v>7.549333219186424</v>
       </c>
       <c r="E8">
-        <v>23.45608393144984</v>
+        <v>13.33351292508791</v>
       </c>
       <c r="F8">
-        <v>46.08867432328115</v>
+        <v>48.84686678998166</v>
       </c>
       <c r="G8">
-        <v>1.842903694266821</v>
+        <v>3.751125498811702</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>38.20982439502536</v>
+        <v>37.04603634028711</v>
       </c>
       <c r="J8">
-        <v>13.44344138812526</v>
+        <v>9.367140318187426</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>101.8662610463876</v>
+        <v>60.50398308711499</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.924271332977799</v>
+        <v>5.9829495020759</v>
       </c>
       <c r="D9">
-        <v>14.08892663221026</v>
+        <v>8.491028037295701</v>
       </c>
       <c r="E9">
-        <v>23.45608393144984</v>
+        <v>14.88776445181732</v>
       </c>
       <c r="F9">
-        <v>46.08867432328115</v>
+        <v>47.07988261141129</v>
       </c>
       <c r="G9">
-        <v>1.842903694266821</v>
+        <v>3.725325808454579</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>38.20982439502536</v>
+        <v>36.2023120672856</v>
       </c>
       <c r="J9">
-        <v>13.44344138812526</v>
+        <v>9.682483775595482</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>101.8662610463876</v>
+        <v>67.65458366768777</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.924271332977799</v>
+        <v>5.698336464785815</v>
       </c>
       <c r="D10">
-        <v>14.08892663221026</v>
+        <v>9.132603968584599</v>
       </c>
       <c r="E10">
-        <v>23.45608393144984</v>
+        <v>15.94126287545798</v>
       </c>
       <c r="F10">
-        <v>46.08867432328115</v>
+        <v>46.03149415137037</v>
       </c>
       <c r="G10">
-        <v>1.842903694266821</v>
+        <v>3.707526883175874</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>38.20982439502536</v>
+        <v>35.76457710984455</v>
       </c>
       <c r="J10">
-        <v>13.44344138812526</v>
+        <v>9.925849526700297</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>101.8662610463876</v>
+        <v>72.4719662739295</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.924271332977799</v>
+        <v>5.572006616773187</v>
       </c>
       <c r="D11">
-        <v>14.08892663221026</v>
+        <v>9.428712560898116</v>
       </c>
       <c r="E11">
-        <v>23.45608393144984</v>
+        <v>16.40045418727196</v>
       </c>
       <c r="F11">
-        <v>46.08867432328115</v>
+        <v>45.61521810735374</v>
       </c>
       <c r="G11">
-        <v>1.842903694266821</v>
+        <v>3.699666980789152</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.20982439502536</v>
+        <v>35.60910325662551</v>
       </c>
       <c r="J11">
-        <v>13.44344138812526</v>
+        <v>10.03888210811864</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>101.8662610463876</v>
+        <v>74.56624169333283</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.924271332977799</v>
+        <v>5.524604583916595</v>
       </c>
       <c r="D12">
-        <v>14.08892663221026</v>
+        <v>9.544058829992849</v>
       </c>
       <c r="E12">
-        <v>23.45608393144984</v>
+        <v>16.57140441526627</v>
       </c>
       <c r="F12">
-        <v>46.08867432328115</v>
+        <v>45.4668852128579</v>
       </c>
       <c r="G12">
-        <v>1.842903694266821</v>
+        <v>3.696723533890895</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.20982439502536</v>
+        <v>35.55685814146825</v>
       </c>
       <c r="J12">
-        <v>13.44344138812526</v>
+        <v>10.0820013510909</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>101.8662610463876</v>
+        <v>75.34518381223933</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.924271332977799</v>
+        <v>5.534794302729859</v>
       </c>
       <c r="D13">
-        <v>14.08892663221026</v>
+        <v>9.519323899178559</v>
       </c>
       <c r="E13">
-        <v>23.45608393144984</v>
+        <v>16.53471846129415</v>
       </c>
       <c r="F13">
-        <v>46.08867432328115</v>
+        <v>45.49840799534999</v>
       </c>
       <c r="G13">
-        <v>1.842903694266821</v>
+        <v>3.697356012167846</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.20982439502536</v>
+        <v>35.56780952634293</v>
       </c>
       <c r="J13">
-        <v>13.44344138812526</v>
+        <v>10.07270105785775</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>101.8662610463876</v>
+        <v>75.17805409760825</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.924271332977799</v>
+        <v>5.568098167698912</v>
       </c>
       <c r="D14">
-        <v>14.08892663221026</v>
+        <v>9.438250390705077</v>
       </c>
       <c r="E14">
-        <v>23.45608393144984</v>
+        <v>16.41457744551955</v>
       </c>
       <c r="F14">
-        <v>46.08867432328115</v>
+        <v>45.60282478403661</v>
       </c>
       <c r="G14">
-        <v>1.842903694266821</v>
+        <v>3.699424168464066</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.20982439502536</v>
+        <v>35.60467011089489</v>
       </c>
       <c r="J14">
-        <v>13.44344138812526</v>
+        <v>10.04242331446551</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>101.8662610463876</v>
+        <v>74.63060921771233</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.924271332977799</v>
+        <v>5.58855410698659</v>
       </c>
       <c r="D15">
-        <v>14.08892663221026</v>
+        <v>9.3882770291968</v>
       </c>
       <c r="E15">
-        <v>23.45608393144984</v>
+        <v>16.3406040088348</v>
       </c>
       <c r="F15">
-        <v>46.08867432328115</v>
+        <v>45.66801235377076</v>
       </c>
       <c r="G15">
-        <v>1.842903694266821</v>
+        <v>3.70069522721341</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.20982439502536</v>
+        <v>35.62812221821876</v>
       </c>
       <c r="J15">
-        <v>13.44344138812526</v>
+        <v>10.02391799592591</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>101.8662610463876</v>
+        <v>74.29344205683499</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.924271332977799</v>
+        <v>5.706654325943473</v>
       </c>
       <c r="D16">
-        <v>14.08892663221026</v>
+        <v>9.114048300909223</v>
       </c>
       <c r="E16">
-        <v>23.45608393144984</v>
+        <v>15.91084535934015</v>
       </c>
       <c r="F16">
-        <v>46.08867432328115</v>
+        <v>46.05996789687698</v>
       </c>
       <c r="G16">
-        <v>1.842903694266821</v>
+        <v>3.708045217434677</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.20982439502536</v>
+        <v>35.77564603258099</v>
       </c>
       <c r="J16">
-        <v>13.44344138812526</v>
+        <v>9.918507789088933</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>101.8662610463876</v>
+        <v>72.33313170958716</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.924271332977799</v>
+        <v>5.779898808757226</v>
       </c>
       <c r="D17">
-        <v>14.08892663221026</v>
+        <v>8.950137269553595</v>
       </c>
       <c r="E17">
-        <v>23.45608393144984</v>
+        <v>15.6420248576524</v>
       </c>
       <c r="F17">
-        <v>46.08867432328115</v>
+        <v>46.31635362673722</v>
       </c>
       <c r="G17">
-        <v>1.842903694266821</v>
+        <v>3.712614084666446</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.20982439502536</v>
+        <v>35.87757582350643</v>
       </c>
       <c r="J17">
-        <v>13.44344138812526</v>
+        <v>9.854424198126042</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>101.8662610463876</v>
+        <v>71.10553750886423</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.924271332977799</v>
+        <v>5.822323788063147</v>
       </c>
       <c r="D18">
-        <v>14.08892663221026</v>
+        <v>8.854776789002804</v>
       </c>
       <c r="E18">
-        <v>23.45608393144984</v>
+        <v>15.48552126730467</v>
       </c>
       <c r="F18">
-        <v>46.08867432328115</v>
+        <v>46.46949062039544</v>
       </c>
       <c r="G18">
-        <v>1.842903694266821</v>
+        <v>3.71526434768835</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.20982439502536</v>
+        <v>35.9402904411657</v>
       </c>
       <c r="J18">
-        <v>13.44344138812526</v>
+        <v>9.817784797186709</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>101.8662610463876</v>
+        <v>70.39031568229881</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.924271332977799</v>
+        <v>5.83673958125208</v>
       </c>
       <c r="D19">
-        <v>14.08892663221026</v>
+        <v>8.822304636903617</v>
       </c>
       <c r="E19">
-        <v>23.45608393144984</v>
+        <v>15.43220990855948</v>
       </c>
       <c r="F19">
-        <v>46.08867432328115</v>
+        <v>46.52229701067795</v>
       </c>
       <c r="G19">
-        <v>1.842903694266821</v>
+        <v>3.716165557370182</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.20982439502536</v>
+        <v>35.96221593708689</v>
       </c>
       <c r="J19">
-        <v>13.44344138812526</v>
+        <v>9.805417640442263</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>101.8662610463876</v>
+        <v>70.14658890671896</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.924271332977799</v>
+        <v>5.772071213566652</v>
       </c>
       <c r="D20">
-        <v>14.08892663221026</v>
+        <v>8.967698287680983</v>
       </c>
       <c r="E20">
-        <v>23.45608393144984</v>
+        <v>15.67083679129332</v>
       </c>
       <c r="F20">
-        <v>46.08867432328115</v>
+        <v>46.28846993721282</v>
       </c>
       <c r="G20">
-        <v>1.842903694266821</v>
+        <v>3.712125413676691</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.20982439502536</v>
+        <v>35.86629967883692</v>
       </c>
       <c r="J20">
-        <v>13.44344138812526</v>
+        <v>9.861223392768657</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>101.8662610463876</v>
+        <v>71.2371643767371</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.924271332977799</v>
+        <v>5.558304297791362</v>
       </c>
       <c r="D21">
-        <v>14.08892663221026</v>
+        <v>9.462128943549654</v>
       </c>
       <c r="E21">
-        <v>23.45608393144984</v>
+        <v>16.44994578799417</v>
       </c>
       <c r="F21">
-        <v>46.08867432328115</v>
+        <v>45.57189777266192</v>
       </c>
       <c r="G21">
-        <v>1.842903694266821</v>
+        <v>3.698815816561394</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.20982439502536</v>
+        <v>35.5936604975076</v>
       </c>
       <c r="J21">
-        <v>13.44344138812526</v>
+        <v>10.05130817560803</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>101.8662610463876</v>
+        <v>74.79179096319876</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.924271332977799</v>
+        <v>5.421131235747963</v>
       </c>
       <c r="D22">
-        <v>14.08892663221026</v>
+        <v>9.793397251757701</v>
       </c>
       <c r="E22">
-        <v>23.45608393144984</v>
+        <v>16.94201366502721</v>
       </c>
       <c r="F22">
-        <v>46.08867432328115</v>
+        <v>45.1580908196715</v>
       </c>
       <c r="G22">
-        <v>1.842903694266821</v>
+        <v>3.690308581038958</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.20982439502536</v>
+        <v>35.45428511696782</v>
       </c>
       <c r="J22">
-        <v>13.44344138812526</v>
+        <v>10.17737556677254</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>101.8662610463876</v>
+        <v>77.0326466192983</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.924271332977799</v>
+        <v>5.494116214625464</v>
       </c>
       <c r="D23">
-        <v>14.08892663221026</v>
+        <v>9.617872068295426</v>
       </c>
       <c r="E23">
-        <v>23.45608393144984</v>
+        <v>16.6809682572283</v>
       </c>
       <c r="F23">
-        <v>46.08867432328115</v>
+        <v>45.37375746368517</v>
       </c>
       <c r="G23">
-        <v>1.842903694266821</v>
+        <v>3.694831935832825</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.20982439502536</v>
+        <v>35.52500299307869</v>
       </c>
       <c r="J23">
-        <v>13.44344138812526</v>
+        <v>10.10992863606958</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>101.8662610463876</v>
+        <v>75.84422271523215</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.924271332977799</v>
+        <v>5.775609084690898</v>
       </c>
       <c r="D24">
-        <v>14.08892663221026</v>
+        <v>8.959762455198875</v>
       </c>
       <c r="E24">
-        <v>23.45608393144984</v>
+        <v>15.65781700167521</v>
       </c>
       <c r="F24">
-        <v>46.08867432328115</v>
+        <v>46.30105832604576</v>
       </c>
       <c r="G24">
-        <v>1.842903694266821</v>
+        <v>3.712346268360079</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.20982439502536</v>
+        <v>35.87138483678068</v>
       </c>
       <c r="J24">
-        <v>13.44344138812526</v>
+        <v>9.858148842850799</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>101.8662610463876</v>
+        <v>71.17768532917451</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.924271332977799</v>
+        <v>6.090648764344071</v>
       </c>
       <c r="D25">
-        <v>14.08892663221026</v>
+        <v>8.244852828019578</v>
       </c>
       <c r="E25">
-        <v>23.45608393144984</v>
+        <v>14.482463684823</v>
       </c>
       <c r="F25">
-        <v>46.08867432328115</v>
+        <v>47.51607960199684</v>
       </c>
       <c r="G25">
-        <v>1.842903694266821</v>
+        <v>3.732097811128294</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.20982439502536</v>
+        <v>36.39993020306565</v>
       </c>
       <c r="J25">
-        <v>13.44344138812526</v>
+        <v>9.595047059421535</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>101.8662610463876</v>
+        <v>65.79564291023311</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_212/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.333022211235455</v>
+        <v>4.373290913465352</v>
       </c>
       <c r="D2">
-        <v>7.684960262628124</v>
+        <v>14.58251971565286</v>
       </c>
       <c r="E2">
-        <v>13.55805561243772</v>
+        <v>24.25867142467366</v>
       </c>
       <c r="F2">
-        <v>48.57599838311926</v>
+        <v>49.30046455976404</v>
       </c>
       <c r="G2">
-        <v>3.747422307412096</v>
+        <v>1.817461506284374</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.90984708386188</v>
+        <v>40.54937299982496</v>
       </c>
       <c r="J2">
-        <v>9.409276959553779</v>
+        <v>13.96600525045595</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>61.54106134167115</v>
+        <v>105.4532719010136</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.504067222198687</v>
+        <v>3.168563269821575</v>
       </c>
       <c r="D3">
-        <v>7.286018444012268</v>
+        <v>13.19589794516921</v>
       </c>
       <c r="E3">
-        <v>12.89678247941952</v>
+        <v>22.00116545607035</v>
       </c>
       <c r="F3">
-        <v>49.38866750656814</v>
+        <v>40.79566380231612</v>
       </c>
       <c r="G3">
-        <v>3.758315282026042</v>
+        <v>1.886185810722937</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.32475479197978</v>
+        <v>34.28070041564998</v>
       </c>
       <c r="J3">
-        <v>9.288685663414006</v>
+        <v>12.52124920985471</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>58.48209263516336</v>
+        <v>95.40112377629221</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.612529486195087</v>
+        <v>2.542174117588719</v>
       </c>
       <c r="D4">
-        <v>7.032084496090605</v>
+        <v>12.38914806020095</v>
       </c>
       <c r="E4">
-        <v>12.47451075822538</v>
+        <v>20.68273173197955</v>
       </c>
       <c r="F4">
-        <v>49.93154842231684</v>
+        <v>36.57736172545233</v>
       </c>
       <c r="G4">
-        <v>3.765260120923243</v>
+        <v>1.922564354041421</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>37.61181056359554</v>
+        <v>31.05119320720046</v>
       </c>
       <c r="J4">
-        <v>9.217377041288138</v>
+        <v>11.70944436936603</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>56.52032851347695</v>
+        <v>89.57871107646397</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.657606684683816</v>
+        <v>2.303938050941622</v>
       </c>
       <c r="D5">
-        <v>6.926462863128621</v>
+        <v>12.06446089325831</v>
       </c>
       <c r="E5">
-        <v>12.2985152129744</v>
+        <v>20.15081835253174</v>
       </c>
       <c r="F5">
-        <v>50.16344834922251</v>
+        <v>35.03160006600808</v>
       </c>
       <c r="G5">
-        <v>3.768155567247218</v>
+        <v>1.936541620885333</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>37.73663828148814</v>
+        <v>29.8350928484475</v>
       </c>
       <c r="J5">
-        <v>9.189023733996873</v>
+        <v>11.38751661242339</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>55.70046999925373</v>
+        <v>87.26529388033201</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.665145116939472</v>
+        <v>2.26520029742945</v>
       </c>
       <c r="D6">
-        <v>6.908798973978316</v>
+        <v>12.01065966331739</v>
       </c>
       <c r="E6">
-        <v>12.26906030053223</v>
+        <v>20.06260185520506</v>
       </c>
       <c r="F6">
-        <v>50.20258943141334</v>
+        <v>34.78400597649073</v>
       </c>
       <c r="G6">
-        <v>3.768640326788276</v>
+        <v>1.938822702128551</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>37.7578322037921</v>
+        <v>29.63820054649773</v>
       </c>
       <c r="J6">
-        <v>9.184358807303489</v>
+        <v>11.33441293169401</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>55.56311903320501</v>
+        <v>86.8886285392104</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.613133841387627</v>
+        <v>2.538902216373109</v>
       </c>
       <c r="D7">
-        <v>7.030668546217394</v>
+        <v>12.38475909941989</v>
       </c>
       <c r="E7">
-        <v>12.47215283187264</v>
+        <v>20.675546816711</v>
       </c>
       <c r="F7">
-        <v>49.93463316390811</v>
+        <v>36.55588047754608</v>
       </c>
       <c r="G7">
-        <v>3.765298904124235</v>
+        <v>1.922755743738131</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37.61346260064732</v>
+        <v>31.03443574211251</v>
       </c>
       <c r="J7">
-        <v>9.216991778978265</v>
+        <v>11.70507559544974</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>56.50935344939568</v>
+        <v>89.54706644594135</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.391292491771518</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D8">
-        <v>7.549333219186424</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E8">
-        <v>13.33351292508791</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F8">
-        <v>48.84686678998166</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G8">
-        <v>3.751125498811702</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37.04603634028711</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J8">
-        <v>9.367140318187426</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>60.50398308711499</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.9829495020759</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D9">
-        <v>8.491028037295701</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E9">
-        <v>14.88776445181732</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F9">
-        <v>47.07988261141129</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G9">
-        <v>3.725325808454579</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.2023120672856</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J9">
-        <v>9.682483775595482</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>67.65458366768777</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.698336464785815</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D10">
-        <v>9.132603968584599</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E10">
-        <v>15.94126287545798</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F10">
-        <v>46.03149415137037</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G10">
-        <v>3.707526883175874</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.76457710984455</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J10">
-        <v>9.925849526700297</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>72.4719662739295</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.572006616773187</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D11">
-        <v>9.428712560898116</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E11">
-        <v>16.40045418727196</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F11">
-        <v>45.61521810735374</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G11">
-        <v>3.699666980789152</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.60910325662551</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J11">
-        <v>10.03888210811864</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>74.56624169333283</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.524604583916595</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D12">
-        <v>9.544058829992849</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E12">
-        <v>16.57140441526627</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F12">
-        <v>45.4668852128579</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G12">
-        <v>3.696723533890895</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.55685814146825</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J12">
-        <v>10.0820013510909</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>75.34518381223933</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.534794302729859</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D13">
-        <v>9.519323899178559</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E13">
-        <v>16.53471846129415</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F13">
-        <v>45.49840799534999</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G13">
-        <v>3.697356012167846</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.56780952634293</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J13">
-        <v>10.07270105785775</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>75.17805409760825</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.568098167698912</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D14">
-        <v>9.438250390705077</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E14">
-        <v>16.41457744551955</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F14">
-        <v>45.60282478403661</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G14">
-        <v>3.699424168464066</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.60467011089489</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J14">
-        <v>10.04242331446551</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>74.63060921771233</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.58855410698659</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D15">
-        <v>9.3882770291968</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E15">
-        <v>16.3406040088348</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F15">
-        <v>45.66801235377076</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G15">
-        <v>3.70069522721341</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.62812221821876</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J15">
-        <v>10.02391799592591</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>74.29344205683499</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.706654325943473</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D16">
-        <v>9.114048300909223</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E16">
-        <v>15.91084535934015</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F16">
-        <v>46.05996789687698</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G16">
-        <v>3.708045217434677</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.77564603258099</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J16">
-        <v>9.918507789088933</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>72.33313170958716</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.779898808757226</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D17">
-        <v>8.950137269553595</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E17">
-        <v>15.6420248576524</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F17">
-        <v>46.31635362673722</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G17">
-        <v>3.712614084666446</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.87757582350643</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J17">
-        <v>9.854424198126042</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>71.10553750886423</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.822323788063147</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D18">
-        <v>8.854776789002804</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E18">
-        <v>15.48552126730467</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F18">
-        <v>46.46949062039544</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G18">
-        <v>3.71526434768835</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.9402904411657</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J18">
-        <v>9.817784797186709</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>70.39031568229881</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.83673958125208</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D19">
-        <v>8.822304636903617</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E19">
-        <v>15.43220990855948</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F19">
-        <v>46.52229701067795</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G19">
-        <v>3.716165557370182</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.96221593708689</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J19">
-        <v>9.805417640442263</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>70.14658890671896</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.772071213566652</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D20">
-        <v>8.967698287680983</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E20">
-        <v>15.67083679129332</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F20">
-        <v>46.28846993721282</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G20">
-        <v>3.712125413676691</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.86629967883692</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J20">
-        <v>9.861223392768657</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>71.2371643767371</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.558304297791362</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D21">
-        <v>9.462128943549654</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E21">
-        <v>16.44994578799417</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F21">
-        <v>45.57189777266192</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G21">
-        <v>3.698815816561394</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.5936604975076</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J21">
-        <v>10.05130817560803</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>74.79179096319876</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.421131235747963</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D22">
-        <v>9.793397251757701</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E22">
-        <v>16.94201366502721</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F22">
-        <v>45.1580908196715</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G22">
-        <v>3.690308581038958</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.45428511696782</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J22">
-        <v>10.17737556677254</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>77.0326466192983</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.494116214625464</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D23">
-        <v>9.617872068295426</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E23">
-        <v>16.6809682572283</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F23">
-        <v>45.37375746368517</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G23">
-        <v>3.694831935832825</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.52500299307869</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J23">
-        <v>10.10992863606958</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>75.84422271523215</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.775609084690898</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D24">
-        <v>8.959762455198875</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E24">
-        <v>15.65781700167521</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F24">
-        <v>46.30105832604576</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G24">
-        <v>3.712346268360079</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.87138483678068</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J24">
-        <v>9.858148842850799</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>71.17768532917451</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.090648764344071</v>
+        <v>3.924271332977932</v>
       </c>
       <c r="D25">
-        <v>8.244852828019578</v>
+        <v>14.08892663221046</v>
       </c>
       <c r="E25">
-        <v>14.482463684823</v>
+        <v>23.45608393144993</v>
       </c>
       <c r="F25">
-        <v>47.51607960199684</v>
+        <v>46.08867432328216</v>
       </c>
       <c r="G25">
-        <v>3.732097811128294</v>
+        <v>1.842903694266686</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.39993020306565</v>
+        <v>38.20982439502607</v>
       </c>
       <c r="J25">
-        <v>9.595047059421535</v>
+        <v>13.44344138812531</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>65.79564291023311</v>
+        <v>101.8662610463879</v>
       </c>
       <c r="N25">
         <v>0</v>
